--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value501.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value501.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.371625197809421</v>
+        <v>1.2669677734375</v>
       </c>
       <c r="B1">
-        <v>3.097415282566113</v>
+        <v>2.744543313980103</v>
       </c>
       <c r="C1">
-        <v>3.442815357073033</v>
+        <v>5.03374719619751</v>
       </c>
       <c r="D1">
-        <v>1.167170634016447</v>
+        <v>2.00143575668335</v>
       </c>
       <c r="E1">
-        <v>0.8096349771942488</v>
+        <v>1.032090425491333</v>
       </c>
     </row>
   </sheetData>
